--- a/evaluacion.dia.28.xlsx
+++ b/evaluacion.dia.28.xlsx
@@ -281,6 +281,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -445,6 +446,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -609,6 +611,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -773,6 +776,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -909,11 +913,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56652965"/>
-        <c:axId val="40542828"/>
+        <c:axId val="91412031"/>
+        <c:axId val="28380113"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56652965"/>
+        <c:axId val="91412031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,14 +945,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40542828"/>
+        <c:crossAx val="28380113"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40542828"/>
+        <c:axId val="28380113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +967,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -985,7 +989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56652965"/>
+        <c:crossAx val="91412031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1038,15 +1042,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:colOff>494280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:colOff>563760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1054,8 +1058,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3345120" y="3634560"/>
-        <a:ext cx="7301160" cy="4108320"/>
+        <a:off x="3507120" y="5501520"/>
+        <a:ext cx="7300800" cy="4107960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1075,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
